--- a/sourceData/harapan_lama_sekolah.xlsx
+++ b/sourceData/harapan_lama_sekolah.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\binus\gemastik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{31C37942-93A6-4A69-B5B5-0C79315C5356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB192D-43F3-488E-841F-9961DC07FE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>JAWA TENGAH</t>
   </si>
   <si>
-    <t>D I YOGYAKARTA</t>
-  </si>
-  <si>
     <t>JAWA TIMUR</t>
   </si>
   <si>
@@ -125,12 +122,15 @@
   </si>
   <si>
     <t>Provinsi</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1017,20 +1017,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1">
         <v>2022</v>
@@ -1291,7 +1293,7 @@
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4">
         <v>12.18</v>
@@ -1436,7 +1438,7 @@
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5">
         <v>15.65</v>
@@ -1465,7 +1467,7 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4">
         <v>13.37</v>
@@ -1494,7 +1496,7 @@
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5">
         <v>13.05</v>
@@ -1523,7 +1525,7 @@
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>13.48</v>
@@ -1552,7 +1554,7 @@
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5">
         <v>13.96</v>
@@ -1581,7 +1583,7 @@
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>13.21</v>
@@ -1610,7 +1612,7 @@
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5">
         <v>12.66</v>
@@ -1639,7 +1641,7 @@
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>12.75</v>
@@ -1668,7 +1670,7 @@
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5">
         <v>12.82</v>
@@ -1697,7 +1699,7 @@
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4">
         <v>13.84</v>
@@ -1726,7 +1728,7 @@
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5">
         <v>13.06</v>
@@ -1755,7 +1757,7 @@
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4">
         <v>12.95</v>
@@ -1784,7 +1786,7 @@
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5">
         <v>13.32</v>
@@ -1813,7 +1815,7 @@
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4">
         <v>13.53</v>
@@ -1842,7 +1844,7 @@
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5">
         <v>13.69</v>
@@ -1871,7 +1873,7 @@
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4">
         <v>13.12</v>
@@ -1900,7 +1902,7 @@
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="5">
         <v>12.87</v>
@@ -1929,7 +1931,7 @@
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4">
         <v>14</v>
@@ -1958,7 +1960,7 @@
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5">
         <v>13.73</v>
@@ -1987,7 +1989,7 @@
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4">
         <v>13.21</v>
@@ -2016,7 +2018,7 @@
     </row>
     <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5">
         <v>11.14</v>
@@ -2045,7 +2047,6 @@
     </row>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
